--- a/static/modelo_oficinas.xlsx
+++ b/static/modelo_oficinas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe Cabral\Downloads\system_iafap V1.0.1\system_iafap V1.0.1\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\system\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{668CD2E8-6395-44D8-AD8A-9B993E40AA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A81492-DFC7-4AC0-A8B1-461209B5FAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>titulo</t>
   </si>
@@ -49,13 +49,19 @@
     <t>horarios_fim</t>
   </si>
   <si>
-    <t>datas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palavras_chave_manha	</t>
-  </si>
-  <si>
-    <t>palavras_chave_tarde</t>
+    <t>evento</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>inscricao_gratuita</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>preco</t>
   </si>
 </sst>
 </file>
@@ -73,18 +79,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -125,13 +137,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,60 +455,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="9" width="15.73046875" customWidth="1"/>
+    <col min="11" max="11" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.53125" customWidth="1"/>
+    <col min="13" max="14" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>